--- a/D5_cheat_sheet/d5_cheat_sheet.xlsx
+++ b/D5_cheat_sheet/d5_cheat_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mo.G\Cheat sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906197C6-3354-44BB-9272-95715B009DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F55B35-A4CE-434C-88A6-E36CDDB556B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Category</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Alt</t>
+  </si>
+  <si>
+    <t>File</t>
   </si>
 </sst>
 </file>
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O1:O3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -692,68 +695,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.75">
@@ -761,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.75">
@@ -772,10 +775,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
@@ -783,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.75">
@@ -794,10 +797,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.75">
@@ -805,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.75">
@@ -816,10 +819,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
@@ -827,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
@@ -838,10 +841,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.75">
@@ -849,65 +852,65 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.75">
@@ -915,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.75">
@@ -926,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.75">
@@ -937,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.75">
@@ -948,10 +951,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.75">
@@ -959,109 +962,109 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.75">
@@ -1069,10 +1072,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.75">
@@ -1080,10 +1083,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.75">
@@ -1091,10 +1094,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.75">
@@ -1102,65 +1105,65 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
